--- a/output/StructureDefinition-healthcareservice-reference.xlsx
+++ b/output/StructureDefinition-healthcareservice-reference.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/healthcareservice-reference</t>
+    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/healthcareservice-reference</t>
   </si>
   <si>
     <t>Version</t>
@@ -360,7 +360,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/NatlDir-HealthcareService)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-HealthcareService)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-healthcareservice-reference.xlsx
+++ b/output/StructureDefinition-healthcareservice-reference.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/healthcareservice-reference</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/healthcareservice-reference</t>
   </si>
   <si>
     <t>Version</t>
@@ -360,7 +360,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/national-directory/StructureDefinition/NatlDir-HealthcareService)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-HealthcareService)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-healthcareservice-reference.xlsx
+++ b/output/StructureDefinition-healthcareservice-reference.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/healthcareservice-reference</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/healthcareservice-reference</t>
   </si>
   <si>
     <t>Version</t>
@@ -360,7 +360,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/NatlDir-HealthcareService)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-HealthcareService)
 </t>
   </si>
   <si>
